--- a/DataCreation/data/products.xlsx
+++ b/DataCreation/data/products.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6800" activeTab="4"/>
+    <workbookView windowWidth="21600" windowHeight="9765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="手动导入产品信息" sheetId="1" r:id="rId1"/>
@@ -219,6 +219,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -226,8 +248,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,96 +348,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,25 +356,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,97 +384,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,85 +558,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,17 +593,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,17 +623,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,15 +646,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,6 +665,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -681,15 +690,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -701,7 +701,7 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -710,133 +710,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1217,13 +1217,13 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="20.6272727272727" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.3727272727273" style="4" customWidth="1"/>
+    <col min="1" max="1" width="20.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.375" style="4" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.2545454545455" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.2583333333333" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:6">
@@ -1592,15 +1592,15 @@
   <sheetPr/>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="18.8727272727273" style="4" customWidth="1"/>
+    <col min="1" max="1" width="18.875" style="4" customWidth="1"/>
     <col min="2" max="2" width="34" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.1272727272727" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23" customHeight="1" spans="1:3">
@@ -1630,19 +1630,19 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="11.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.1272727272727" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.3727272727273" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="4" customWidth="1"/>
     <col min="7" max="7" width="16.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.7545454545455" style="4" customWidth="1"/>
-    <col min="9" max="9" width="22.7545454545455" style="4" customWidth="1"/>
-    <col min="10" max="10" width="16.8727272727273" style="4" customWidth="1"/>
-    <col min="11" max="11" width="12.8727272727273" style="4" customWidth="1"/>
-    <col min="12" max="12" width="7.75454545454545" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.7583333333333" style="4" customWidth="1"/>
+    <col min="9" max="9" width="22.7583333333333" style="4" customWidth="1"/>
+    <col min="10" max="10" width="16.875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="7.75833333333333" style="4" customWidth="1"/>
     <col min="13" max="13" width="11.5" style="4" customWidth="1"/>
-    <col min="14" max="14" width="25.8727272727273" style="4" customWidth="1"/>
+    <col min="14" max="14" width="25.875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" spans="1:16">
@@ -1710,7 +1710,7 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -1777,15 +1777,15 @@
   <sheetPr/>
   <dimension ref="A2:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="16.9090909090909" customWidth="1"/>
-    <col min="2" max="2" width="35.0909090909091" customWidth="1"/>
-    <col min="3" max="3" width="35.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="16.9083333333333" customWidth="1"/>
+    <col min="2" max="2" width="35.0916666666667" customWidth="1"/>
+    <col min="3" max="3" width="35.275" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">

--- a/DataCreation/data/products.xlsx
+++ b/DataCreation/data/products.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>name</t>
   </si>
@@ -150,6 +150,15 @@
   </si>
   <si>
     <t>pkey</t>
+  </si>
+  <si>
+    <t>1607d2b72c1c00011607d2b72c1c8e01</t>
+  </si>
+  <si>
+    <t>1607d2b72c2700011607d2b72c271801</t>
+  </si>
+  <si>
+    <t>1607d2b72c2c00011607d2b72c2c9001</t>
   </si>
   <si>
     <t>mode</t>
@@ -190,12 +199,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +228,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -227,27 +242,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -257,9 +251,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,6 +269,58 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -279,17 +333,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -301,18 +347,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -324,6 +363,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -331,37 +377,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -384,13 +399,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,169 +573,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,6 +608,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -604,6 +634,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,17 +673,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -664,32 +705,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -698,10 +713,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -710,137 +725,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -862,6 +877,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1214,7 +1232,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1590,13 +1608,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="18.875" style="4" customWidth="1"/>
     <col min="2" max="2" width="34" style="4" customWidth="1"/>
@@ -1612,6 +1630,21 @@
       </c>
       <c r="C1" s="2" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1659,34 +1692,34 @@
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>4</v>
@@ -1793,10 +1826,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
